--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +381,17 @@
         <v>4096.8</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45639</v>
+      </c>
+      <c r="C3">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,16 +354,19 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -383,7 +386,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45639</v>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +381,7 @@
         <v>45638</v>
       </c>
       <c r="C2">
-        <v>4096.8</v>
+        <v>5667.42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,5 +397,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,18 +381,7 @@
         <v>45638</v>
       </c>
       <c r="C2">
-        <v>5667.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45639</v>
-      </c>
-      <c r="C3">
-        <v>555</v>
+        <v>6571.15</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,10 +378,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>45637</v>
+      </c>
+      <c r="C2">
+        <v>45690.720000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>45638</v>
       </c>
-      <c r="C2">
-        <v>6571.15</v>
+      <c r="C3">
+        <v>9458.2900000000009</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
         <v>45638</v>
       </c>
       <c r="C3">
-        <v>9458.2900000000009</v>
+        <v>18142.66</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
         <v>45638</v>
       </c>
       <c r="C3">
-        <v>18142.66</v>
+        <v>22224.99</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,10 +378,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45637</v>
+        <v>45627</v>
       </c>
       <c r="C2">
-        <v>45690.720000000001</v>
+        <v>5594.22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -389,10 +389,120 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>45628</v>
+      </c>
+      <c r="C3">
+        <v>28138.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45629</v>
+      </c>
+      <c r="C4">
+        <v>20669.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45630</v>
+      </c>
+      <c r="C5">
+        <v>20967.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45631</v>
+      </c>
+      <c r="C6">
+        <v>32178.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45632</v>
+      </c>
+      <c r="C7">
+        <v>45321.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45633</v>
+      </c>
+      <c r="C8">
+        <v>18549.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45634</v>
+      </c>
+      <c r="C9">
+        <v>1669.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="C10">
+        <v>3061.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45636</v>
+      </c>
+      <c r="C11">
+        <v>37341.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45637</v>
+      </c>
+      <c r="C12">
+        <v>45690.720000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>45638</v>
       </c>
-      <c r="C3">
-        <v>22224.99</v>
+      <c r="C13">
+        <v>24238.39</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>45638</v>
       </c>
       <c r="C13">
-        <v>24238.39</v>
+        <v>25093.09</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>45638</v>
       </c>
       <c r="C13">
-        <v>25093.09</v>
+        <v>26287.84</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>45638</v>
       </c>
       <c r="C13">
-        <v>26287.84</v>
+        <v>29321.11</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,18 @@
         <v>45638</v>
       </c>
       <c r="C13">
-        <v>29321.11</v>
+        <v>31742.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45639</v>
+      </c>
+      <c r="C14">
+        <v>1026.0999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>1026.0999999999999</v>
+        <v>2460.5300000000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>2460.5300000000002</v>
+        <v>5528.1</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>5528.1</v>
+        <v>9892.39</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>9892.39</v>
+        <v>13322.7</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>13322.7</v>
+        <v>16375.83</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>16375.83</v>
+        <v>21280.83</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>21280.83</v>
+        <v>29345.18</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>29345.18</v>
+        <v>31523.18</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>31523.18</v>
+        <v>33404.57</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,40 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>33404.57</v>
+        <v>36178.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45640</v>
+      </c>
+      <c r="C15">
+        <v>26324.400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45641</v>
+      </c>
+      <c r="C16">
+        <v>2917.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C17">
+        <v>770.53</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>45638</v>
       </c>
       <c r="C13">
-        <v>31742.3</v>
+        <v>31943.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>45639</v>
       </c>
       <c r="C14">
-        <v>36178.68</v>
+        <v>36416.239999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>45641</v>
       </c>
       <c r="C16">
-        <v>2917.29</v>
+        <v>3863.88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>770.53</v>
+        <v>1709.09</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>1709.09</v>
+        <v>3494.86</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>3494.86</v>
+        <v>7546.87</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>7546.87</v>
+        <v>10853.45</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>10853.45</v>
+        <v>13928.46</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>13928.46</v>
+        <v>15391.2</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>15391.2</v>
+        <v>18416.990000000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>18416.990000000002</v>
+        <v>22387.27</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>22387.27</v>
+        <v>24195.31</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>24195.31</v>
+        <v>26026.93</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>26026.93</v>
+        <v>28469.65</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>28469.65</v>
+        <v>29731.34</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>29731.34</v>
+        <v>32917.56</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,18 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>32917.56</v>
+        <v>35931.589999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45643</v>
+      </c>
+      <c r="C18">
+        <v>870.84</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>870.84</v>
+        <v>2172.23</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>2172.23</v>
+        <v>6102.31</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>6102.31</v>
+        <v>8631.2099999999991</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>8631.2099999999991</v>
+        <v>11427.45</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>11427.45</v>
+        <v>16762.77</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>16762.77</v>
+        <v>17015.37</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>17015.37</v>
+        <v>25227.13</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>25227.13</v>
+        <v>27103.37</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>27103.37</v>
+        <v>30351.86</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>30351.86</v>
+        <v>33045.89</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>33045.89</v>
+        <v>34077.65</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +560,17 @@
         <v>34077.65</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45644</v>
+      </c>
+      <c r="C19">
+        <v>137.72999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>137.72999999999999</v>
+        <v>1193.46</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>1193.46</v>
+        <v>3917.05</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>3917.05</v>
+        <v>4415.6400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>4415.6400000000003</v>
+        <v>5756.01</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>5756.01</v>
+        <v>8945.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>8945.4</v>
+        <v>10013.16</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>10013.16</v>
+        <v>12087.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>12087.75</v>
+        <v>28576.97</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>28576.97</v>
+        <v>30893.14</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>30893.14</v>
+        <v>33288.1</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>45642</v>
       </c>
       <c r="C17">
-        <v>35931.589999999997</v>
+        <v>36185.82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>45643</v>
       </c>
       <c r="C18">
-        <v>34077.65</v>
+        <v>35059.47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>33288.1</v>
+        <v>34239.86</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>34239.86</v>
+        <v>38027.85</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,18 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>38027.85</v>
+        <v>39486.559999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45645</v>
+      </c>
+      <c r="C20">
+        <v>883.61</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>45644</v>
       </c>
       <c r="C19">
-        <v>39486.559999999998</v>
+        <v>39835.29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>883.61</v>
+        <v>2107.23</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>2107.23</v>
+        <v>4405.7</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>4405.7</v>
+        <v>5078.25</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>5078.25</v>
+        <v>6144.62</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>6144.62</v>
+        <v>7521.36</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>7521.36</v>
+        <v>8202.11</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>8202.11</v>
+        <v>9590.07</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>9590.07</v>
+        <v>10255.18</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>10255.18</v>
+        <v>11060.29</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>11060.29</v>
+        <v>12412.26</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>12412.26</v>
+        <v>13552.31</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>13552.31</v>
+        <v>16177.17</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>16177.17</v>
+        <v>18191.57</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>18191.57</v>
+        <v>20004.21</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>45645</v>
       </c>
       <c r="C20">
-        <v>20004.21</v>
+        <v>21047.78</v>
       </c>
     </row>
   </sheetData>

--- a/src/controller/ingresos.xlsx
+++ b/src/controller/ingresos.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +582,17 @@
         <v>21047.78</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45646</v>
+      </c>
+      <c r="C21">
+        <v>1376.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
